--- a/rider/monthly/2015_9.xlsx
+++ b/rider/monthly/2015_9.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\PUWM\DEV1\CTR-External (6040)\CMAQ12-13 (6085)\go\reports\rider\monthly\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Ridership" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -133,8 +138,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,12 +176,30 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -195,11 +218,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -389,6 +415,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -529,7 +556,7 @@
                   <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.67</c:v>
+                  <c:v>16.670000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>23.67</c:v>
@@ -579,6 +606,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -689,7 +717,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>19.56</c:v>
+                  <c:v>19.559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>19.72</c:v>
@@ -769,16 +797,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="50010001"/>
-        <c:axId val="50010002"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="205044520"/>
+        <c:axId val="455712728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50010001"/>
+        <c:axId val="205044520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -797,19 +835,25 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010002"/>
+        <c:crossAx val="455712728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50010002"/>
+        <c:axId val="455712728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -829,10 +873,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010001"/>
+        <c:crossAx val="205044520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -840,8 +887,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -929,7 +979,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -961,9 +1011,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -995,6 +1046,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1170,21 +1222,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="1" max="5" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1201,7 +1251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1215,10 +1265,10 @@
         <v>11</v>
       </c>
       <c r="E2">
-        <v>19.56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>19.559999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1235,7 +1285,7 @@
         <v>19.72</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1252,7 +1302,7 @@
         <v>19.88</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1269,7 +1319,7 @@
         <v>20.69</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1286,7 +1336,7 @@
         <v>20.85</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1303,7 +1353,7 @@
         <v>21.01</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1320,7 +1370,7 @@
         <v>21.18</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1337,7 +1387,7 @@
         <v>21.34</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1354,7 +1404,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1371,7 +1421,7 @@
         <v>21.66</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1382,13 +1432,13 @@
         <v>23</v>
       </c>
       <c r="D12">
-        <v>16.67</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="E12">
         <v>21.82</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1405,7 +1455,7 @@
         <v>21.98</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1422,7 +1472,7 @@
         <v>22.14</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1439,7 +1489,7 @@
         <v>22.31</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1456,7 +1506,7 @@
         <v>22.47</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1473,7 +1523,7 @@
         <v>22.63</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1490,7 +1540,7 @@
         <v>22.79</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1507,7 +1557,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1524,7 +1574,7 @@
         <v>23.11</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1541,7 +1591,7 @@
         <v>23.27</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1558,7 +1608,7 @@
         <v>23.44</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1575,7 +1625,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1592,7 +1642,7 @@
         <v>23.76</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1609,7 +1659,7 @@
         <v>23.92</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1626,7 +1676,7 @@
         <v>24.08</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1641,6 +1691,12 @@
       </c>
       <c r="E27">
         <v>24.24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <f>SUM(C2:C27)</f>
+        <v>557</v>
       </c>
     </row>
   </sheetData>
